--- a/Examples/GroupDocs.Watermark-for-Java/Data/Output/sample.xlsx
+++ b/Examples/GroupDocs.Watermark-for-Java/Data/Output/sample.xlsx
@@ -41,7 +41,7 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -212,6 +212,7 @@
           <a:ext cx="1143000" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
+        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -254,6 +255,101 @@
           <a:ext cx="4876800" cy="4619625"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="752475" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr fromWordArt="1" wrap="none">
+          <a:prstTxWarp prst="textPlain"/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr sz="4200" kern="10" spc="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000">
+                  <a:alpha val="100000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Test watermark</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2847975" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -547,7 +643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
@@ -556,7 +652,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15">
+    <row r="1" spans="1:1" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
